--- a/Module1/Discussion/Continuum_vs_CA_Modeling.xlsx
+++ b/Module1/Discussion/Continuum_vs_CA_Modeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/ModelingApproachestoCellandTissueEngineering/Module1/Discussion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD4DDC8-D3A9-3A4F-83E9-85FFC769A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937B4752-CECB-A342-8E39-146C07E45C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="29720" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>Aspect</t>
-  </si>
-  <si>
     <t>Cellular Automata (CA)</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
     <t>Nature</t>
   </si>
   <si>
-    <t>Mathematical Framework</t>
-  </si>
-  <si>
     <t>Representation of Cells</t>
   </si>
   <si>
@@ -128,13 +122,19 @@
   </si>
   <si>
     <t>Can incorporate insights from CA or agent-based models to refine accuracy and complexity</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Framework</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,11 +144,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,11 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,146 +505,147 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
